--- a/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
+++ b/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>697</v>
+        <v>69</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -688,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>697</v>
+        <v>69</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -871,12 +871,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
     <mergeCell ref="B29:D32"/>
     <mergeCell ref="B34:D37"/>
     <mergeCell ref="Y2:AB2"/>
@@ -891,6 +885,12 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1"/>

--- a/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
+++ b/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>RF11</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Ids que no existen</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/RotondAndes/rest/administradorrotonda/ordenes</t>
+  </si>
+  <si>
+    <t>No debería fallar en principio.</t>
   </si>
 </sst>
 </file>
@@ -176,10 +182,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -501,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,48 +519,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -563,32 +569,32 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -620,8 +626,8 @@
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -637,15 +643,15 @@
       <c r="F8">
         <v>69</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -671,11 +677,11 @@
       <c r="F13">
         <v>1010</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -690,36 +696,36 @@
       <c r="F14">
         <v>69</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -758,84 +764,107 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -846,12 +875,12 @@
         <v>1010054402</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>2020202020</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -859,18 +888,24 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F29:H32"/>
     <mergeCell ref="B29:D32"/>
     <mergeCell ref="B34:D37"/>
     <mergeCell ref="Y2:AB2"/>
@@ -887,10 +922,6 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1"/>

--- a/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
+++ b/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>RF11</t>
   </si>
@@ -83,9 +83,6 @@
     <t>RFC8</t>
   </si>
   <si>
-    <t>RFC9</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>No debería fallar en principio.</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/RotondAndes/rest/administradorrotonda/ordenes/productosmenu</t>
+  </si>
+  <si>
+    <t>RFC7</t>
   </si>
 </sst>
 </file>
@@ -182,10 +185,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,82 +522,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -607,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -626,8 +629,8 @@
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -643,15 +646,15 @@
       <c r="F8">
         <v>69</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -677,11 +680,11 @@
       <c r="F13">
         <v>1010</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -696,36 +699,36 @@
       <c r="F14">
         <v>69</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -764,125 +767,144 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
         <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
       </c>
       <c r="C39">
         <v>1010054402</v>
       </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>2020202020</v>
       </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>1234567890</v>
@@ -895,19 +917,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F29:H32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="B34:D37"/>
+  <mergeCells count="23">
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A24:D24"/>
@@ -922,11 +936,21 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F29:H32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="F37:H40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="F37" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
+++ b/docs/Ejemplos fallos, existos pruebas requerimientos..xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Chavarro\Desktop\Iteracion_3\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="66">
   <si>
     <t>RF11</t>
   </si>
@@ -135,12 +130,99 @@
   </si>
   <si>
     <t>RFC7</t>
+  </si>
+  <si>
+    <t>ordenRestaurante/equivalencias</t>
+  </si>
+  <si>
+    <t>idOrdenRestaurante</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>idMenu</t>
+  </si>
+  <si>
+    <t>idRotonda</t>
+  </si>
+  <si>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>servida</t>
+  </si>
+  <si>
+    <t>ordenRestaurante</t>
+  </si>
+  <si>
+    <t>equivalencias</t>
+  </si>
+  <si>
+    <t>idProducto1</t>
+  </si>
+  <si>
+    <t>idProducto2</t>
+  </si>
+  <si>
+    <t>2017-10-03</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1090509418</t>
+  </si>
+  <si>
+    <t>Falla debido a que la orden con este id ya existe</t>
+  </si>
+  <si>
+    <t>Falla debido a que la equivalencia no existe</t>
+  </si>
+  <si>
+    <t>Falla debido a que el menu no existe</t>
+  </si>
+  <si>
+    <t>ordenRestaurante/ordenMesa/{idMesa}</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Falla debido menu no existe</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>idMesa</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>asdsa</t>
+  </si>
+  <si>
+    <t>IdMesa no existe</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,28 +256,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,294 +627,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB44"/>
+  <dimension ref="A2:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="F4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1010</v>
       </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>69</v>
       </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2222</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1010</v>
       </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>69</v>
       </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="2">
+        <v>11</v>
+      </c>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2">
+        <v>6</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="2">
+        <v>6</v>
+      </c>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>1010</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>55555</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>777777</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="2">
+        <v>21</v>
+      </c>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="2">
+        <v>6</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="M27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -803,7 +1605,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -811,33 +1613,105 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="2">
+        <v>6</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="2">
+        <v>2</v>
+      </c>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -845,28 +1719,81 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="M35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="2">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2222</v>
+      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -874,54 +1801,678 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S37" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1010054402</v>
       </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
         <v>2020202020</v>
       </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40" s="2">
+        <v>3</v>
+      </c>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
         <v>1234567890</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43">
+      <c r="D42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="2">
+        <v>6</v>
+      </c>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="2">
+        <v>20</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="2">
+        <v>4</v>
+      </c>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="2">
+        <v>6</v>
+      </c>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1</v>
+      </c>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2222</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S51" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" s="2">
+        <v>6</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S60" s="2">
+        <v>2</v>
+      </c>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S64" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3</v>
+      </c>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S71" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S74" s="2">
+        <v>4</v>
+      </c>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0</v>
+      </c>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S78" s="2">
+        <v>2020202020</v>
+      </c>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q82" s="2"/>
+      <c r="R82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="34">
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F29:H32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="F37:H40"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A24:D24"/>
@@ -936,21 +2487,13 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F29:H32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="F37:H40"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1"/>
     <hyperlink ref="F37" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
 </worksheet>
 </file>